--- a/measures/4 site-specific measures for data collection/Balas & Sarzynska/text/instructions.xlsx
+++ b/measures/4 site-specific measures for data collection/Balas & Sarzynska/text/instructions.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmoranyo\Documents\LipLab\projects\RRR_fazio&amp;olson2001\replication_procedure\labs\BALAS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="75" windowWidth="26820" windowHeight="17040"/>
+    <workbookView xWindow="14100" yWindow="75" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,12 +29,6 @@
 Jeśli masz jakieś pytania, skontaktuj się z eksperymentatorem.</t>
   </si>
   <si>
-    <t>Wyobraź sobie, że jesteś ochroniarzem obserwującym niewłaściwe działania w firmie. Twoja praca wymaga ciągłego zwracania uwagi i szybkiego reagowania, gdy dzieje się coś podejrzanego. 
-W naszym laboratorium badamy uwagę i szybkie reagowanie, a w tym eksperymencie zostaniesz poproszony o odegranie roli ochroniarza.
-W szczególności będziesz uczestniczył w obserwacji wielu elementów prezentowanych na ekranie komputera i będziesz reagować tak szybko, jak to możliwe, gdy element docelowy pojawi się po naciśnięciu spacji.
-Naciśnij spację, aby kontynuować</t>
-  </si>
-  <si>
     <t>Przedmiot docelowy pojawi się losowo kilka razy w trakcie eksperymentu. Element docelowy może pojawić się jako obraz lub nazwa. Należy więc zawsze zwracać uwagę i skupiać się na ekranie, ponieważ nigdy nie wiadomo, kiedy pojawi się element docelowy. 
 Wiele elementów wypełniających, które wybraliśmy z naszej puli bodźców, zostanie również pokazanych losowo, aby zadanie było trudniejsze. Tymi rozpraszaczami są zarówno zdjęcia, jak i słowa, które zostały losowo wybrane z naszej kolekcji. 
 Czasami na ekranie pojawiają się jednocześnie dwa obrazy, a czasem tylko jeden obraz. Pamiętaj, aby nacisnąć spację tylko wtedy, gdy pojawi się cel.  
@@ -47,50 +36,56 @@
 Naciśnij spację, aby kontynuować.</t>
   </si>
   <si>
-    <t>Przedmioty będą wyświetlane szybko, więc upewnij się, że kiedy zobaczysz stworzenie docelowe, uderzysz spację, zanim ono zniknie.  
-Pamiętaj, aby zwracać szczególną uwagę podczas eksperymentu, byś mógł odpowiedzieć tak szybko i dokładnie, jak to możliwe. 
-Będzie pięć oddzielnych zadań śledzenia, każde po około 4 minut.
+    <t>Wyobraź sobie, że jesteś ochroniarzem obserwującym niewłaściwe działania w firmie. Twoja praca wymaga ciągłego zwracania uwagi i szybkiego reagowania, gdy dzieje się coś podejrzanego. 
+W naszym laboratorium badamy uwagę i szybkie reagowanie, a w tym eksperymencie zostaniesz poproszony o odegranie roli ochroniarza.
+W szczególności będziesz uczestniczył w obserwacji wielu elementów prezentowanych na ekranie komputera i będziesz reagować tak szybko, jak to możliwe, gdy element docelowy pojawi się po naciśnięciu spacji.
+Naciśnij spację aby kontynuować</t>
+  </si>
+  <si>
+    <t>Przedmioty będą wyświetlane szybko, więc upewnij się, że kiedy zobaczysz stworzenie docelowe naciśniesz spację zanim ono zniknie.  
+Pamiętaj, aby zwracać szczególną uwagę podczas eksperymentu byś mógł odpowiedzieć tak szybko i dokładnie, jak to możliwe. 
+Będzie pięć oddzielnych zadań śledzenia, każde trwające około 4 minuty.
 Każde zadanie będzie miało inny cel, a wszystkie przedmioty docelowe będą stworzeniami z kreskówek.
 Naciśnij spację, aby kontynuować.</t>
   </si>
   <si>
-    <t>Następnie poprosimy cię o odpowiedź na kilka pytań.</t>
-  </si>
-  <si>
-    <t>Dla każdego z poniższych stwierdzeń proszę wskazać, w jakim stopniu dotyczą one Ciebie.
+    <t>Teraz poprosimy cię o odpowiedź na kilka pytań.</t>
+  </si>
+  <si>
+    <t>Dla każdego z poniższych stwierdzeń proszę wskazać w jakim stopniu dotyczą one Ciebie.
 Pamiętaj, że nie ma dobrych lub złych odpowiedzi.</t>
   </si>
   <si>
-    <t>Dla każdego z poniższych stwierdzeń proszę wskazać, w jakim stopniu są one charakterystyczne dla Ciebie.
+    <t>Dla każdego z poniższych stwierdzeń proszę wskazać w jakim stopniu są one charakterystyczne dla Ciebie.
 Pamiętaj, że nie ma dobrych lub złych odpowiedzi.</t>
   </si>
   <si>
-    <t>Następnie otrzymasz 30 par stworzeń docelowych i wypełniających z zadań śledzenia, a my chcielibyśmy, abyś wskazał, który z nich bardziej Ci się podoba.
+    <t>Teraz zobaczysz 30 par stworzeń docelowych i wypełniających z zadań śledzenia, a my chcielibyśmy abyś wskazał, który z nich bardziej Ci się podoba.
 Nie musisz mieć powodu, aby lubić jedno czy drugie, po prostu podaj nam swoje odczucia.
 Chcemy wiedzieć, czy przyjemność lub nieprzyjemność tych bodźców wpływa na zdolność do uczestnictwa i szybkiego reagowania na nie, dlatego musimy wiedzieć, który wolisz.  
-Pamiętaj, że nie potrzebujesz mieć powodu, aby lubić jedno, a nie drugie, więc po prostu kieruj się pierwszymi odczuciami. Odpowiadaj najszybciej jak to możliwe.
+Pamiętaj, że nie potrzebujesz mieć powodu, aby lubić jedno a nie drugie, więc po prostu kieruj się pierwszymi odczuciami. Odpowiadaj najszybciej jak to możliwe.
+Naciśnij spację aby kontynuować.</t>
+  </si>
+  <si>
+    <t>Teraz zadamy ci kilka pytań, a później badanie się zakończy.
 Naciśnij spację, aby kontynuować.</t>
+  </si>
+  <si>
+    <t>To jest koniec eksperymentu.
+Naciśnij spację aby zakończyć.</t>
   </si>
   <si>
     <t>Połóż lewy palec na klawiszu E i prawy palec na klawiszu I.
 Jeśli wolisz stworzenie po lewej, naciśnij E.
 Jeśli wolisz stworzenie po prawej, naciśnij I.
-Naciśnij spację, aby kontynuować.</t>
-  </si>
-  <si>
-    <t>Na koniec zadamy ci niewielką liczbę pytań, a później badanie się zakończy.
-Naciśnij spację, aby kontynuować.</t>
-  </si>
-  <si>
-    <t>To jest koniec eksperymentu.
-Naciśnij spację, aby zakończyć.</t>
+Naciśnij spację aby kontynuować.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -603,48 +598,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akcent 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akcent 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akcent 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akcent 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akcent 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akcent 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Dane wejściowe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Dane wyjściowe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Dobre" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Komórka połączona" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Komórka zaznaczona" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutralne" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Obliczenia" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Suma" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Tekst objaśnienia" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Tytuł" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Złe" xfId="7" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -948,87 +943,86 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="63">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="219.95" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="297" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="297" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="230.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="230.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="47.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="47.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="126" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="126">
       <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="75" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:1" ht="47.25">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
